--- a/refs/heads/rc2/StructureDefinition-svc-bundle.xlsx
+++ b/refs/heads/rc2/StructureDefinition-svc-bundle.xlsx
@@ -146,7 +146,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Contains a collection of resources</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Smart Vaccination Certificate Bundle</t>
   </si>
   <si>
     <t>A container for a collection of resources.</t>
@@ -166,9 +169,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -453,7 +453,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -742,7 +742,7 @@
 </t>
   </si>
   <si>
-    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
+    <t>SVC Composition</t>
   </si>
   <si>
     <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
@@ -1141,7 +1141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>39</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>42</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -1169,10 +1169,10 @@
         <v>40</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1235,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>40</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1263,7 +1263,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>40</v>
@@ -1272,7 +1272,7 @@
         <v>40</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>51</v>
@@ -1340,7 +1340,7 @@
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>40</v>
@@ -1374,7 +1374,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>40</v>
@@ -1383,7 +1383,7 @@
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>57</v>
@@ -1449,7 +1449,7 @@
         <v>41</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>40</v>
@@ -1483,16 +1483,16 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>63</v>
@@ -1560,7 +1560,7 @@
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>40</v>
@@ -1594,7 +1594,7 @@
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1671,7 +1671,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -1692,7 +1692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>77</v>
       </c>
@@ -1702,19 +1702,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>78</v>
@@ -1782,7 +1782,7 @@
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>40</v>
@@ -1803,7 +1803,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>84</v>
       </c>
@@ -1813,19 +1813,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>69</v>
@@ -1890,10 +1890,10 @@
         <v>84</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>40</v>
@@ -1914,7 +1914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>93</v>
       </c>
@@ -1927,16 +1927,16 @@
         <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>94</v>
@@ -2004,7 +2004,7 @@
         <v>41</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>40</v>
@@ -2038,7 +2038,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
@@ -2047,7 +2047,7 @@
         <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>101</v>
@@ -2115,7 +2115,7 @@
         <v>41</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>105</v>
@@ -2158,7 +2158,7 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>107</v>
@@ -2260,7 +2260,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
@@ -2335,7 +2335,7 @@
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>40</v>
@@ -2486,10 +2486,10 @@
         <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>118</v>
@@ -2571,7 +2571,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2590,10 +2590,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -2602,7 +2602,7 @@
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>51</v>
@@ -2665,10 +2665,10 @@
         <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>40</v>
@@ -2699,10 +2699,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -2711,7 +2711,7 @@
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>63</v>
@@ -2774,10 +2774,10 @@
         <v>133</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
@@ -2811,16 +2811,16 @@
         <v>137</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>107</v>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>141</v>
@@ -2918,7 +2918,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -2993,7 +2993,7 @@
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -3144,10 +3144,10 @@
         <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>118</v>
@@ -3229,7 +3229,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3260,7 +3260,7 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>40</v>
@@ -3360,7 +3360,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3369,7 +3369,7 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>63</v>
@@ -3437,7 +3437,7 @@
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3471,7 +3471,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3480,7 +3480,7 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>154</v>
@@ -3546,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -3580,7 +3580,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3589,7 +3589,7 @@
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>107</v>
@@ -3655,7 +3655,7 @@
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>160</v>
@@ -3689,7 +3689,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -3764,7 +3764,7 @@
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -3915,10 +3915,10 @@
         <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>118</v>
@@ -4000,7 +4000,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4022,7 +4022,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4031,7 +4031,7 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>69</v>
@@ -4099,7 +4099,7 @@
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
@@ -4133,7 +4133,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4142,7 +4142,7 @@
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>171</v>
@@ -4210,7 +4210,7 @@
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4244,7 +4244,7 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4253,7 +4253,7 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>107</v>
@@ -4319,7 +4319,7 @@
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>178</v>
@@ -4353,7 +4353,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4428,7 +4428,7 @@
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4579,10 +4579,10 @@
         <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>118</v>
@@ -4664,7 +4664,7 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4683,10 +4683,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4695,7 +4695,7 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>69</v>
@@ -4758,10 +4758,10 @@
         <v>182</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
@@ -4792,10 +4792,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -4804,7 +4804,7 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>63</v>
@@ -4869,10 +4869,10 @@
         <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -4906,7 +4906,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -4915,7 +4915,7 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>51</v>
@@ -4981,7 +4981,7 @@
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5015,7 +5015,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5024,7 +5024,7 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>94</v>
@@ -5090,7 +5090,7 @@
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5124,7 +5124,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5133,7 +5133,7 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>51</v>
@@ -5199,7 +5199,7 @@
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5233,7 +5233,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5242,7 +5242,7 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>51</v>
@@ -5308,7 +5308,7 @@
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5342,7 +5342,7 @@
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5351,7 +5351,7 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>107</v>
@@ -5417,7 +5417,7 @@
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>205</v>
@@ -5451,7 +5451,7 @@
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5526,7 +5526,7 @@
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5677,10 +5677,10 @@
         <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>118</v>
@@ -5762,7 +5762,7 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -5781,10 +5781,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -5793,7 +5793,7 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>51</v>
@@ -5856,10 +5856,10 @@
         <v>209</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -5893,7 +5893,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -5902,7 +5902,7 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>63</v>
@@ -5968,7 +5968,7 @@
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
@@ -6002,7 +6002,7 @@
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6011,7 +6011,7 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>51</v>
@@ -6079,7 +6079,7 @@
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6113,7 +6113,7 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6122,7 +6122,7 @@
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>94</v>
@@ -6190,7 +6190,7 @@
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
@@ -6224,7 +6224,7 @@
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
@@ -6233,7 +6233,7 @@
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>154</v>
@@ -6301,7 +6301,7 @@
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6322,7 +6322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>136</v>
       </c>
@@ -6334,19 +6334,19 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>107</v>
@@ -6446,7 +6446,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6521,7 +6521,7 @@
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
@@ -6672,10 +6672,10 @@
         <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>118</v>
@@ -6757,7 +6757,7 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -6788,7 +6788,7 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>40</v>
@@ -6888,7 +6888,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -6897,7 +6897,7 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>63</v>
@@ -6965,7 +6965,7 @@
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -6986,7 +6986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>153</v>
       </c>
@@ -6996,13 +6996,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -7076,7 +7076,7 @@
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
@@ -7110,7 +7110,7 @@
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>40</v>
@@ -7119,7 +7119,7 @@
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>107</v>
@@ -7185,7 +7185,7 @@
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>160</v>
@@ -7219,7 +7219,7 @@
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7294,7 +7294,7 @@
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
@@ -7445,10 +7445,10 @@
         <v>40</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>118</v>
@@ -7530,7 +7530,7 @@
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7552,7 +7552,7 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -7561,7 +7561,7 @@
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>69</v>
@@ -7629,7 +7629,7 @@
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -7663,7 +7663,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -7672,7 +7672,7 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>171</v>
@@ -7740,7 +7740,7 @@
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -7774,7 +7774,7 @@
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -7783,7 +7783,7 @@
         <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>107</v>
@@ -7849,7 +7849,7 @@
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>178</v>
@@ -7883,7 +7883,7 @@
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -7958,7 +7958,7 @@
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8109,10 +8109,10 @@
         <v>40</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>118</v>
@@ -8194,7 +8194,7 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8213,10 +8213,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8225,7 +8225,7 @@
         <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>69</v>
@@ -8288,10 +8288,10 @@
         <v>182</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8322,10 +8322,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
@@ -8334,7 +8334,7 @@
         <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>63</v>
@@ -8399,10 +8399,10 @@
         <v>187</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
@@ -8436,7 +8436,7 @@
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>40</v>
@@ -8445,7 +8445,7 @@
         <v>40</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>51</v>
@@ -8511,7 +8511,7 @@
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -8545,7 +8545,7 @@
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>40</v>
@@ -8554,7 +8554,7 @@
         <v>40</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>94</v>
@@ -8620,7 +8620,7 @@
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
@@ -8654,7 +8654,7 @@
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
@@ -8663,7 +8663,7 @@
         <v>40</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>51</v>
@@ -8729,7 +8729,7 @@
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -8763,7 +8763,7 @@
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
@@ -8772,7 +8772,7 @@
         <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>51</v>
@@ -8838,7 +8838,7 @@
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
@@ -8872,7 +8872,7 @@
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>40</v>
@@ -8881,7 +8881,7 @@
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>107</v>
@@ -8947,7 +8947,7 @@
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>205</v>
@@ -8981,7 +8981,7 @@
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>40</v>
@@ -9056,7 +9056,7 @@
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
@@ -9207,10 +9207,10 @@
         <v>40</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>118</v>
@@ -9292,7 +9292,7 @@
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9311,10 +9311,10 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>40</v>
@@ -9323,7 +9323,7 @@
         <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>51</v>
@@ -9386,10 +9386,10 @@
         <v>209</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
@@ -9423,7 +9423,7 @@
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
@@ -9432,7 +9432,7 @@
         <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>63</v>
@@ -9498,7 +9498,7 @@
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
@@ -9532,7 +9532,7 @@
         <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>40</v>
@@ -9541,7 +9541,7 @@
         <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>51</v>
@@ -9609,7 +9609,7 @@
         <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>40</v>
@@ -9643,7 +9643,7 @@
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>40</v>
@@ -9652,7 +9652,7 @@
         <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>94</v>
@@ -9720,7 +9720,7 @@
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
@@ -9754,7 +9754,7 @@
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>40</v>
@@ -9763,7 +9763,7 @@
         <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>154</v>
@@ -9831,7 +9831,7 @@
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>40</v>
@@ -9852,7 +9852,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>136</v>
       </c>
@@ -9864,19 +9864,19 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>107</v>
@@ -9976,7 +9976,7 @@
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>40</v>
@@ -10051,7 +10051,7 @@
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
@@ -10202,10 +10202,10 @@
         <v>40</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>118</v>
@@ -10287,7 +10287,7 @@
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -10318,7 +10318,7 @@
         <v>40</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>40</v>
@@ -10418,7 +10418,7 @@
         <v>41</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>40</v>
@@ -10427,7 +10427,7 @@
         <v>40</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>63</v>
@@ -10495,7 +10495,7 @@
         <v>41</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>40</v>
@@ -10526,13 +10526,13 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>40</v>
@@ -10604,7 +10604,7 @@
         <v>41</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>40</v>
@@ -10638,7 +10638,7 @@
         <v>41</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>40</v>
@@ -10647,7 +10647,7 @@
         <v>40</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>107</v>
@@ -10713,7 +10713,7 @@
         <v>41</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>160</v>
@@ -10747,7 +10747,7 @@
         <v>41</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>40</v>
@@ -10822,7 +10822,7 @@
         <v>41</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>40</v>
@@ -10973,10 +10973,10 @@
         <v>40</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>118</v>
@@ -11058,7 +11058,7 @@
         <v>40</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>40</v>
@@ -11080,7 +11080,7 @@
         <v>41</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>40</v>
@@ -11089,7 +11089,7 @@
         <v>40</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>69</v>
@@ -11157,7 +11157,7 @@
         <v>41</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>40</v>
@@ -11191,7 +11191,7 @@
         <v>41</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>40</v>
@@ -11200,7 +11200,7 @@
         <v>40</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>171</v>
@@ -11268,7 +11268,7 @@
         <v>41</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>40</v>
@@ -11302,7 +11302,7 @@
         <v>41</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>40</v>
@@ -11311,7 +11311,7 @@
         <v>40</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>107</v>
@@ -11377,7 +11377,7 @@
         <v>41</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>178</v>
@@ -11411,7 +11411,7 @@
         <v>41</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>40</v>
@@ -11486,7 +11486,7 @@
         <v>41</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>40</v>
@@ -11637,10 +11637,10 @@
         <v>40</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>118</v>
@@ -11722,7 +11722,7 @@
         <v>40</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>40</v>
@@ -11741,10 +11741,10 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>40</v>
@@ -11753,7 +11753,7 @@
         <v>40</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>69</v>
@@ -11816,10 +11816,10 @@
         <v>182</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>40</v>
@@ -11850,10 +11850,10 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>40</v>
@@ -11862,7 +11862,7 @@
         <v>40</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>63</v>
@@ -11927,10 +11927,10 @@
         <v>187</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>40</v>
@@ -11964,7 +11964,7 @@
         <v>41</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>40</v>
@@ -11973,7 +11973,7 @@
         <v>40</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>51</v>
@@ -12039,7 +12039,7 @@
         <v>41</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>40</v>
@@ -12073,7 +12073,7 @@
         <v>41</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>40</v>
@@ -12082,7 +12082,7 @@
         <v>40</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>94</v>
@@ -12148,7 +12148,7 @@
         <v>41</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>40</v>
@@ -12182,7 +12182,7 @@
         <v>41</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>40</v>
@@ -12191,7 +12191,7 @@
         <v>40</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J102" t="s" s="2">
         <v>51</v>
@@ -12257,7 +12257,7 @@
         <v>41</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>40</v>
@@ -12291,7 +12291,7 @@
         <v>41</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>40</v>
@@ -12300,7 +12300,7 @@
         <v>40</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>51</v>
@@ -12366,7 +12366,7 @@
         <v>41</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>40</v>
@@ -12400,7 +12400,7 @@
         <v>41</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>40</v>
@@ -12409,7 +12409,7 @@
         <v>40</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>107</v>
@@ -12475,7 +12475,7 @@
         <v>41</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>205</v>
@@ -12509,7 +12509,7 @@
         <v>41</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>40</v>
@@ -12584,7 +12584,7 @@
         <v>41</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>40</v>
@@ -12735,10 +12735,10 @@
         <v>40</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J107" t="s" s="2">
         <v>118</v>
@@ -12820,7 +12820,7 @@
         <v>40</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>40</v>
@@ -12839,10 +12839,10 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>40</v>
@@ -12851,7 +12851,7 @@
         <v>40</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>51</v>
@@ -12914,10 +12914,10 @@
         <v>209</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>40</v>
@@ -12951,7 +12951,7 @@
         <v>41</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>40</v>
@@ -12960,7 +12960,7 @@
         <v>40</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J109" t="s" s="2">
         <v>63</v>
@@ -13026,7 +13026,7 @@
         <v>41</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>40</v>
@@ -13060,7 +13060,7 @@
         <v>41</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>40</v>
@@ -13069,7 +13069,7 @@
         <v>40</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J110" t="s" s="2">
         <v>51</v>
@@ -13137,7 +13137,7 @@
         <v>41</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>40</v>
@@ -13171,7 +13171,7 @@
         <v>41</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>40</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>94</v>
@@ -13248,7 +13248,7 @@
         <v>41</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>40</v>
@@ -13282,7 +13282,7 @@
         <v>41</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>40</v>
@@ -13291,7 +13291,7 @@
         <v>40</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>154</v>
@@ -13359,7 +13359,7 @@
         <v>41</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>40</v>
@@ -13380,7 +13380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>136</v>
       </c>
@@ -13392,19 +13392,19 @@
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J113" t="s" s="2">
         <v>107</v>
@@ -13504,7 +13504,7 @@
         <v>41</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>40</v>
@@ -13579,7 +13579,7 @@
         <v>41</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>40</v>
@@ -13730,10 +13730,10 @@
         <v>40</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J116" t="s" s="2">
         <v>118</v>
@@ -13815,7 +13815,7 @@
         <v>40</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>40</v>
@@ -13846,7 +13846,7 @@
         <v>40</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J117" t="s" s="2">
         <v>40</v>
@@ -13946,7 +13946,7 @@
         <v>41</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>40</v>
@@ -13955,7 +13955,7 @@
         <v>40</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J118" t="s" s="2">
         <v>63</v>
@@ -14023,7 +14023,7 @@
         <v>41</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>40</v>
@@ -14044,7 +14044,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>153</v>
       </c>
@@ -14054,13 +14054,13 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>40</v>
@@ -14134,7 +14134,7 @@
         <v>41</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>40</v>
@@ -14168,7 +14168,7 @@
         <v>41</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>40</v>
@@ -14177,7 +14177,7 @@
         <v>40</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J120" t="s" s="2">
         <v>107</v>
@@ -14243,7 +14243,7 @@
         <v>41</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>160</v>
@@ -14277,7 +14277,7 @@
         <v>41</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>40</v>
@@ -14352,7 +14352,7 @@
         <v>41</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>40</v>
@@ -14503,10 +14503,10 @@
         <v>40</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J123" t="s" s="2">
         <v>118</v>
@@ -14588,7 +14588,7 @@
         <v>40</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>40</v>
@@ -14610,7 +14610,7 @@
         <v>41</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>40</v>
@@ -14619,7 +14619,7 @@
         <v>40</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J124" t="s" s="2">
         <v>69</v>
@@ -14687,7 +14687,7 @@
         <v>41</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>40</v>
@@ -14721,7 +14721,7 @@
         <v>41</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>40</v>
@@ -14730,7 +14730,7 @@
         <v>40</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J125" t="s" s="2">
         <v>171</v>
@@ -14798,7 +14798,7 @@
         <v>41</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>40</v>
@@ -14832,7 +14832,7 @@
         <v>41</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>40</v>
@@ -14841,7 +14841,7 @@
         <v>40</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J126" t="s" s="2">
         <v>107</v>
@@ -14907,7 +14907,7 @@
         <v>41</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>178</v>
@@ -14941,7 +14941,7 @@
         <v>41</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>40</v>
@@ -15016,7 +15016,7 @@
         <v>41</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>40</v>
@@ -15167,10 +15167,10 @@
         <v>40</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J129" t="s" s="2">
         <v>118</v>
@@ -15252,7 +15252,7 @@
         <v>40</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>40</v>
@@ -15271,10 +15271,10 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>40</v>
@@ -15283,7 +15283,7 @@
         <v>40</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J130" t="s" s="2">
         <v>69</v>
@@ -15346,10 +15346,10 @@
         <v>182</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>40</v>
@@ -15380,10 +15380,10 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>40</v>
@@ -15392,7 +15392,7 @@
         <v>40</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>63</v>
@@ -15457,10 +15457,10 @@
         <v>187</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>40</v>
@@ -15494,7 +15494,7 @@
         <v>41</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>40</v>
@@ -15503,7 +15503,7 @@
         <v>40</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J132" t="s" s="2">
         <v>51</v>
@@ -15569,7 +15569,7 @@
         <v>41</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>40</v>
@@ -15603,7 +15603,7 @@
         <v>41</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>40</v>
@@ -15612,7 +15612,7 @@
         <v>40</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J133" t="s" s="2">
         <v>94</v>
@@ -15678,7 +15678,7 @@
         <v>41</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>40</v>
@@ -15712,7 +15712,7 @@
         <v>41</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>40</v>
@@ -15721,7 +15721,7 @@
         <v>40</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>51</v>
@@ -15787,7 +15787,7 @@
         <v>41</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>40</v>
@@ -15821,7 +15821,7 @@
         <v>41</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>40</v>
@@ -15830,7 +15830,7 @@
         <v>40</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J135" t="s" s="2">
         <v>51</v>
@@ -15896,7 +15896,7 @@
         <v>41</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>40</v>
@@ -15930,7 +15930,7 @@
         <v>41</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>40</v>
@@ -15939,7 +15939,7 @@
         <v>40</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J136" t="s" s="2">
         <v>107</v>
@@ -16005,7 +16005,7 @@
         <v>41</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>205</v>
@@ -16039,7 +16039,7 @@
         <v>41</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>40</v>
@@ -16114,7 +16114,7 @@
         <v>41</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>40</v>
@@ -16265,10 +16265,10 @@
         <v>40</v>
       </c>
       <c r="H139" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J139" t="s" s="2">
         <v>118</v>
@@ -16350,7 +16350,7 @@
         <v>40</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>40</v>
@@ -16369,10 +16369,10 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>40</v>
@@ -16381,7 +16381,7 @@
         <v>40</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J140" t="s" s="2">
         <v>51</v>
@@ -16444,10 +16444,10 @@
         <v>209</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>40</v>
@@ -16481,7 +16481,7 @@
         <v>41</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>40</v>
@@ -16490,7 +16490,7 @@
         <v>40</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J141" t="s" s="2">
         <v>63</v>
@@ -16556,7 +16556,7 @@
         <v>41</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>40</v>
@@ -16590,7 +16590,7 @@
         <v>41</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>40</v>
@@ -16599,7 +16599,7 @@
         <v>40</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J142" t="s" s="2">
         <v>51</v>
@@ -16667,7 +16667,7 @@
         <v>41</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>40</v>
@@ -16701,7 +16701,7 @@
         <v>41</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>40</v>
@@ -16710,7 +16710,7 @@
         <v>40</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J143" t="s" s="2">
         <v>94</v>
@@ -16778,7 +16778,7 @@
         <v>41</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>40</v>
@@ -16812,7 +16812,7 @@
         <v>41</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>40</v>
@@ -16821,7 +16821,7 @@
         <v>40</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J144" t="s" s="2">
         <v>154</v>
@@ -16889,7 +16889,7 @@
         <v>41</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>40</v>
@@ -16923,7 +16923,7 @@
         <v>41</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>40</v>
@@ -16932,7 +16932,7 @@
         <v>40</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J145" t="s" s="2">
         <v>250</v>
@@ -17002,7 +17002,7 @@
         <v>41</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>40</v>

--- a/refs/heads/rc2/StructureDefinition-svc-bundle.xlsx
+++ b/refs/heads/rc2/StructureDefinition-svc-bundle.xlsx
@@ -738,7 +738,7 @@
     <t>SVC_Composition_Entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-composition}
+    <t xml:space="preserve">Composition {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-composition}
 </t>
   </si>
   <si>
@@ -768,7 +768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-patient}
+    <t xml:space="preserve">Patient {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-patient}
 </t>
   </si>
   <si>
@@ -791,7 +791,7 @@
 EventActivity</t>
   </si>
   <si>
-    <t xml:space="preserve">Provenance {http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-provenance}
+    <t xml:space="preserve">Provenance {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-provenance}
 </t>
   </si>
   <si>
